--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2560566.177320853</v>
+        <v>2558020.991247567</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>65.45045825209378</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.1960097880556</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.32897990642503</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>51.85259582525477</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.5531420538941</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>171.4701275066039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>90.47425134795107</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805175974</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>111.3062202753134</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>10.74993283584321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060142</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127826</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,10 +3269,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.9345014072213</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.01781586839</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7521172616393</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>544.963864663395</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>133.9779598737875</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>120.0545558123784</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>120.0545558123784</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,7 +4422,7 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4562,22 +4562,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2644.772731598773</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2468.595243912943</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2468.595243912943</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2468.595243912943</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2137.532356569372</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1784.763701299258</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1784.763701299258</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>1710.685703078436</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353292</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.463253419559</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1663.175414063304</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.496879136949</v>
+        <v>1857.509626955287</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2027.678652272246</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243321</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2367.73190451848</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2367.73190451848</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2367.73190451848</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>2367.73190451848</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>1897.10301828439</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>502.0306379830699</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.889514203793</v>
+        <v>818.7575723533688</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1486.301972380379</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>366.1236936385926</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>366.1236936385926</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>366.1236936385926</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>145.3311144950625</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138424</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3584617859356</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2418223735998</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>597.2418223735998</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138424</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,31 +5768,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.425677595856</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,22 +6309,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6473,22 +6473,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,16 +6777,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6914,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.5507239167111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469509</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7728,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,25 +8450,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284443</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>316.7274269914635</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>339.184373405</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-1.217248922758014e-12</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664526</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>34.11482774761784</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788525</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.9597225531939</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814934</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856684</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682729</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682737</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682687</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682752</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682746</v>
+        <v>5677.536566682705</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682727</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084679</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246442.0010961674</v>
+        <v>-246442.0010961677</v>
       </c>
       <c r="C6" t="n">
-        <v>343525.8781183768</v>
+        <v>343525.8781183769</v>
       </c>
       <c r="D6" t="n">
-        <v>187722.0720245824</v>
+        <v>187722.0720245822</v>
       </c>
       <c r="E6" t="n">
-        <v>-252314.1430116414</v>
+        <v>-252348.8809370772</v>
       </c>
       <c r="F6" t="n">
-        <v>518738.5483691646</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="G6" t="n">
-        <v>518738.5483691649</v>
+        <v>518703.810443729</v>
       </c>
       <c r="H6" t="n">
-        <v>518738.5483691649</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="I6" t="n">
-        <v>518738.5483691651</v>
+        <v>518703.8104437289</v>
       </c>
       <c r="J6" t="n">
-        <v>342315.3291765719</v>
+        <v>342280.5912511363</v>
       </c>
       <c r="K6" t="n">
-        <v>518738.5483691649</v>
+        <v>518703.8104437292</v>
       </c>
       <c r="L6" t="n">
-        <v>518738.5483691649</v>
+        <v>518703.8104437293</v>
       </c>
       <c r="M6" t="n">
-        <v>394530.0376611063</v>
+        <v>394495.2997356708</v>
       </c>
       <c r="N6" t="n">
-        <v>518738.548369165</v>
+        <v>518703.8104437289</v>
       </c>
       <c r="O6" t="n">
-        <v>518738.5483691648</v>
+        <v>518703.8104437294</v>
       </c>
       <c r="P6" t="n">
-        <v>518738.5483691648</v>
+        <v>518703.8104437292</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>86.48085799276747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>158.0449589293574</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516593</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.625806749556951</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693534</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.1806996095865</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>41.18173560836215</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>89.35772883398623</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28281,10 +28281,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-7.806480349213553e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29989,10 +29989,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-4.938527139227503e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-7.806480349213553e-14</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328822</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>314.3020503687023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297102</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>428.580280778864</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35255,16 +35255,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>500.3079215552632</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884378</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899061</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
